--- a/local/Italy.xlsx
+++ b/local/Italy.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="16">
   <si>
     <t>dates</t>
   </si>
@@ -101,12 +101,6 @@
     <t>sp_all</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
@@ -117,6 +111,9 @@
   </si>
   <si>
     <t>cum_ncases</t>
+  </si>
+  <si>
+    <t>me</t>
   </si>
 </sst>
 </file>
@@ -477,7 +474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,7 +485,7 @@
   <dimension ref="A1:N687"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -515,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -548,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -564,20 +561,8 @@
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2">
         <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
       </c>
       <c r="J2">
         <v>7</v>
@@ -585,14 +570,8 @@
       <c r="K2">
         <v>0.01</v>
       </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
       <c r="N2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -608,20 +587,8 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3">
         <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
       </c>
       <c r="J3">
         <v>7</v>
@@ -629,14 +596,8 @@
       <c r="K3">
         <v>0.01</v>
       </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>12</v>
-      </c>
       <c r="N3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -661,26 +622,14 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
       <c r="J4">
         <v>7</v>
       </c>
       <c r="K4">
         <v>0.01</v>
       </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>12</v>
-      </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -705,26 +654,14 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
       <c r="J5">
         <v>7</v>
       </c>
       <c r="K5">
         <v>0.01</v>
       </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>12</v>
-      </c>
       <c r="N5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -749,26 +686,14 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
       <c r="J6">
         <v>7</v>
       </c>
       <c r="K6">
         <v>0.01</v>
       </c>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" t="s">
-        <v>12</v>
-      </c>
       <c r="N6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -793,26 +718,14 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
       <c r="J7">
         <v>7</v>
       </c>
       <c r="K7">
         <v>0.01</v>
       </c>
-      <c r="L7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" t="s">
-        <v>12</v>
-      </c>
       <c r="N7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -837,26 +750,14 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8">
         <v>0.01</v>
       </c>
-      <c r="L8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" t="s">
-        <v>12</v>
-      </c>
       <c r="N8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -881,26 +782,14 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
       <c r="J9">
         <v>7</v>
       </c>
       <c r="K9">
         <v>0.01</v>
       </c>
-      <c r="L9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" t="s">
-        <v>12</v>
-      </c>
       <c r="N9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -925,26 +814,14 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
       <c r="J10">
         <v>7</v>
       </c>
       <c r="K10">
         <v>0.01</v>
       </c>
-      <c r="L10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" t="s">
-        <v>12</v>
-      </c>
       <c r="N10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -961,7 +838,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11">
         <v>0.28571428571428598</v>
@@ -969,26 +846,14 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
       <c r="J11">
         <v>7</v>
       </c>
       <c r="K11">
         <v>0.01</v>
       </c>
-      <c r="L11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" t="s">
-        <v>12</v>
-      </c>
       <c r="N11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -1013,26 +878,14 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
       <c r="J12">
         <v>7</v>
       </c>
       <c r="K12">
         <v>0.01</v>
       </c>
-      <c r="L12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" t="s">
-        <v>12</v>
-      </c>
       <c r="N12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -1057,26 +910,14 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
       <c r="J13">
         <v>7</v>
       </c>
       <c r="K13">
         <v>0.01</v>
       </c>
-      <c r="L13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" t="s">
-        <v>12</v>
-      </c>
       <c r="N13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -1101,26 +942,14 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
       <c r="J14">
         <v>7</v>
       </c>
       <c r="K14">
         <v>0.01</v>
       </c>
-      <c r="L14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" t="s">
-        <v>12</v>
-      </c>
       <c r="N14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -1145,26 +974,14 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
       <c r="J15">
         <v>7</v>
       </c>
       <c r="K15">
         <v>0.01</v>
       </c>
-      <c r="L15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" t="s">
-        <v>12</v>
-      </c>
       <c r="N15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -1208,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -1252,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -1269,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F18">
         <v>0.14285714285714299</v>
@@ -1296,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -1340,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -1384,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -1428,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -1472,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
@@ -1516,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -1560,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -1604,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -1648,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -1692,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -1736,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -1780,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -1824,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -1868,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -1912,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
@@ -1956,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
@@ -2000,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
@@ -2044,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
@@ -2088,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
@@ -2132,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
@@ -2176,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
@@ -2220,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
@@ -2264,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -2308,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
@@ -2352,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
@@ -2396,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
@@ -2440,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
@@ -2484,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
@@ -2528,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -2572,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -2616,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
@@ -2660,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
@@ -2704,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
@@ -2748,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
@@ -2792,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
@@ -2836,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
@@ -2880,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
@@ -2924,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
@@ -2968,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
@@ -3012,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
@@ -3056,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
@@ -3100,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
@@ -3144,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
@@ -3188,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
@@ -3232,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
@@ -3276,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
@@ -3320,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
@@ -3364,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
@@ -3408,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
@@ -3452,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
@@ -3496,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
@@ -3540,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
@@ -3584,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
@@ -3628,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
@@ -3672,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
@@ -3716,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
@@ -3760,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
@@ -3804,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
@@ -3848,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="N76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
@@ -3892,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
@@ -3936,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
@@ -3980,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
@@ -4024,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
@@ -4068,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
@@ -4112,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
@@ -4156,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
@@ -4200,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
@@ -4244,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="N85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
@@ -4288,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
@@ -4332,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
@@ -4376,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="N88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
@@ -4420,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="N89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.35">
@@ -4464,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="N90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
@@ -4508,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="N91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
@@ -4552,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
@@ -4596,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
@@ -4640,7 +4457,7 @@
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
@@ -4684,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
@@ -4728,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="N96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
@@ -4772,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="N97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
@@ -4816,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="N98" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
@@ -4860,7 +4677,7 @@
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
@@ -4904,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="N100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
@@ -4948,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="N101" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
@@ -4992,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="N102" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
@@ -5036,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="N103" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
@@ -5080,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="N104" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
@@ -5124,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="N105" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.35">
@@ -5168,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="N106" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.35">
@@ -5212,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="N107" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
@@ -5256,7 +5073,7 @@
         <v>1</v>
       </c>
       <c r="N108" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
@@ -5300,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="N109" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
@@ -5344,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="N110" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
@@ -5388,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="N111" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
@@ -5432,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="N112" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
@@ -5476,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="N113" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
@@ -5520,7 +5337,7 @@
         <v>1</v>
       </c>
       <c r="N114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
@@ -5564,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.35">
@@ -5608,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="N116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.35">
@@ -5652,7 +5469,7 @@
         <v>1</v>
       </c>
       <c r="N117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.35">
@@ -5696,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="N118" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.35">
@@ -5740,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="N119" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
@@ -5784,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="N120" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.35">
@@ -5828,7 +5645,7 @@
         <v>1</v>
       </c>
       <c r="N121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
@@ -5872,7 +5689,7 @@
         <v>1</v>
       </c>
       <c r="N122" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.35">
@@ -5916,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="N123" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.35">
@@ -5960,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="N124" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.35">
@@ -6004,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="N125" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.35">
@@ -6048,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="N126" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.35">
@@ -6092,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="N127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.35">
@@ -6136,7 +5953,7 @@
         <v>1</v>
       </c>
       <c r="N128" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.35">
@@ -6180,7 +5997,7 @@
         <v>1</v>
       </c>
       <c r="N129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.35">
@@ -6224,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="N130" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.35">
@@ -6268,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="N131" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.35">
@@ -6312,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="N132" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.35">
@@ -6356,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="N133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.35">
@@ -6400,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="N134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.35">
@@ -6444,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="N135" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.35">
@@ -6488,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="N136" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.35">
@@ -6532,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="N137" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.35">
@@ -6576,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="N138" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.35">
@@ -6620,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="N139" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.35">
@@ -6664,7 +6481,7 @@
         <v>1</v>
       </c>
       <c r="N140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.35">
@@ -6708,7 +6525,7 @@
         <v>1</v>
       </c>
       <c r="N141" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.35">
@@ -6752,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="N142" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.35">
@@ -6796,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="N143" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.35">
@@ -6840,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="N144" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.35">
@@ -6884,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="N145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.35">
@@ -6928,7 +6745,7 @@
         <v>1</v>
       </c>
       <c r="N146" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.35">
@@ -6972,7 +6789,7 @@
         <v>1</v>
       </c>
       <c r="N147" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.35">
@@ -7016,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="N148" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.35">
@@ -7060,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="N149" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.35">
@@ -7104,7 +6921,7 @@
         <v>1</v>
       </c>
       <c r="N150" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.35">
@@ -7148,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="N151" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.35">
@@ -7192,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="N152" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.35">
@@ -7236,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="N153" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.35">
@@ -7280,7 +7097,7 @@
         <v>1</v>
       </c>
       <c r="N154" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.35">
@@ -7324,7 +7141,7 @@
         <v>1</v>
       </c>
       <c r="N155" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.35">
@@ -7368,7 +7185,7 @@
         <v>1</v>
       </c>
       <c r="N156" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.35">
@@ -7412,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="N157" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.35">
@@ -7456,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="N158" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.35">
@@ -7500,7 +7317,7 @@
         <v>1</v>
       </c>
       <c r="N159" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.35">
@@ -7544,7 +7361,7 @@
         <v>1</v>
       </c>
       <c r="N160" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.35">
@@ -7588,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="N161" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.35">
@@ -7632,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="N162" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.35">
@@ -7676,7 +7493,7 @@
         <v>1</v>
       </c>
       <c r="N163" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.35">
@@ -7720,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="N164" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.35">
@@ -7764,7 +7581,7 @@
         <v>1</v>
       </c>
       <c r="N165" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.35">
@@ -7808,7 +7625,7 @@
         <v>1</v>
       </c>
       <c r="N166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.35">
@@ -7852,7 +7669,7 @@
         <v>1</v>
       </c>
       <c r="N167" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.35">
@@ -7896,7 +7713,7 @@
         <v>1</v>
       </c>
       <c r="N168" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.35">
@@ -7940,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="N169" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.35">
@@ -7984,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="N170" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.35">
@@ -8028,7 +7845,7 @@
         <v>1</v>
       </c>
       <c r="N171" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.35">
@@ -8072,7 +7889,7 @@
         <v>1</v>
       </c>
       <c r="N172" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.35">
@@ -8116,7 +7933,7 @@
         <v>1</v>
       </c>
       <c r="N173" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.35">
@@ -8160,7 +7977,7 @@
         <v>1</v>
       </c>
       <c r="N174" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.35">
@@ -8204,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="N175" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.35">
@@ -8248,7 +8065,7 @@
         <v>1</v>
       </c>
       <c r="N176" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.35">
@@ -8292,7 +8109,7 @@
         <v>1</v>
       </c>
       <c r="N177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.35">
@@ -8336,7 +8153,7 @@
         <v>1</v>
       </c>
       <c r="N178" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.35">
@@ -8380,7 +8197,7 @@
         <v>1</v>
       </c>
       <c r="N179" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.35">
@@ -8424,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="N180" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.35">
@@ -8468,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="N181" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.35">
@@ -8512,7 +8329,7 @@
         <v>1</v>
       </c>
       <c r="N182" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.35">
@@ -8556,7 +8373,7 @@
         <v>1</v>
       </c>
       <c r="N183" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.35">
@@ -8600,7 +8417,7 @@
         <v>1</v>
       </c>
       <c r="N184" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.35">
@@ -8644,7 +8461,7 @@
         <v>1</v>
       </c>
       <c r="N185" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.35">
@@ -8688,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="N186" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.35">
@@ -8732,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="N187" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.35">
@@ -8776,7 +8593,7 @@
         <v>1</v>
       </c>
       <c r="N188" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.35">
@@ -8820,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="N189" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.35">
@@ -8864,7 +8681,7 @@
         <v>1</v>
       </c>
       <c r="N190" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.35">
@@ -8908,7 +8725,7 @@
         <v>1</v>
       </c>
       <c r="N191" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.35">
@@ -8952,7 +8769,7 @@
         <v>1</v>
       </c>
       <c r="N192" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.35">
@@ -8996,7 +8813,7 @@
         <v>1</v>
       </c>
       <c r="N193" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.35">
@@ -9040,7 +8857,7 @@
         <v>1</v>
       </c>
       <c r="N194" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.35">
@@ -9084,7 +8901,7 @@
         <v>1</v>
       </c>
       <c r="N195" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.35">
@@ -9128,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="N196" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.35">
@@ -9172,7 +8989,7 @@
         <v>1</v>
       </c>
       <c r="N197" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.35">
@@ -9216,7 +9033,7 @@
         <v>1</v>
       </c>
       <c r="N198" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.35">
@@ -9260,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="N199" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.35">
@@ -9304,7 +9121,7 @@
         <v>0.99280575539568305</v>
       </c>
       <c r="N200" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.35">
@@ -9348,7 +9165,7 @@
         <v>0.98571428571428599</v>
       </c>
       <c r="N201" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.35">
@@ -9392,7 +9209,7 @@
         <v>0.98581560283687897</v>
       </c>
       <c r="N202" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.35">
@@ -9436,7 +9253,7 @@
         <v>0.98591549295774605</v>
       </c>
       <c r="N203" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.35">
@@ -9480,7 +9297,7 @@
         <v>0.98591549295774605</v>
       </c>
       <c r="N204" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.35">
@@ -9524,7 +9341,7 @@
         <v>0.97887323943661997</v>
       </c>
       <c r="N205" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.35">
@@ -9568,7 +9385,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N206" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.35">
@@ -9612,7 +9429,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N207" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.35">
@@ -9656,7 +9473,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N208" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.35">
@@ -9700,7 +9517,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N209" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.35">
@@ -9744,7 +9561,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N210" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.35">
@@ -9788,7 +9605,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N211" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.35">
@@ -9832,7 +9649,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N212" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.35">
@@ -9876,7 +9693,7 @@
         <v>0.97887323943661997</v>
       </c>
       <c r="N213" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.35">
@@ -9920,7 +9737,7 @@
         <v>0.97887323943661997</v>
       </c>
       <c r="N214" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.35">
@@ -9964,7 +9781,7 @@
         <v>0.97887323943661997</v>
       </c>
       <c r="N215" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.35">
@@ -10008,7 +9825,7 @@
         <v>0.97887323943661997</v>
       </c>
       <c r="N216" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.35">
@@ -10052,7 +9869,7 @@
         <v>0.97887323943661997</v>
       </c>
       <c r="N217" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.35">
@@ -10096,7 +9913,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N218" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.35">
@@ -10140,7 +9957,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N219" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.35">
@@ -10184,7 +10001,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N220" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.35">
@@ -10228,7 +10045,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N221" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.35">
@@ -10272,7 +10089,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N222" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.35">
@@ -10316,7 +10133,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N223" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.35">
@@ -10360,7 +10177,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N224" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.35">
@@ -10404,7 +10221,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N225" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.35">
@@ -10448,7 +10265,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N226" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.35">
@@ -10492,7 +10309,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N227" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.35">
@@ -10536,7 +10353,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N228" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.35">
@@ -10580,7 +10397,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N229" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.35">
@@ -10624,7 +10441,7 @@
         <v>0.93706293706293697</v>
       </c>
       <c r="N230" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.35">
@@ -10668,7 +10485,7 @@
         <v>0.93055555555555602</v>
       </c>
       <c r="N231" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.35">
@@ -10712,7 +10529,7 @@
         <v>0.92413793103448305</v>
       </c>
       <c r="N232" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.35">
@@ -10756,7 +10573,7 @@
         <v>0.92465753424657504</v>
       </c>
       <c r="N233" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.35">
@@ -10800,7 +10617,7 @@
         <v>0.92517006802721102</v>
       </c>
       <c r="N234" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.35">
@@ -10844,7 +10661,7 @@
         <v>0.92567567567567599</v>
       </c>
       <c r="N235" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.35">
@@ -10888,7 +10705,7 @@
         <v>0.92617449664429496</v>
       </c>
       <c r="N236" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.35">
@@ -10932,7 +10749,7 @@
         <v>0.92666666666666697</v>
       </c>
       <c r="N237" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.35">
@@ -10976,7 +10793,7 @@
         <v>0.927152317880795</v>
       </c>
       <c r="N238" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.35">
@@ -11020,7 +10837,7 @@
         <v>0.92763157894736803</v>
       </c>
       <c r="N239" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.35">
@@ -11064,7 +10881,7 @@
         <v>0.92810457516339895</v>
       </c>
       <c r="N240" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.35">
@@ -11108,7 +10925,7 @@
         <v>0.92857142857142905</v>
       </c>
       <c r="N241" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.35">
@@ -11152,7 +10969,7 @@
         <v>0.92903225806451595</v>
       </c>
       <c r="N242" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.35">
@@ -11196,7 +11013,7 @@
         <v>0.92948717948717996</v>
       </c>
       <c r="N243" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.35">
@@ -11240,7 +11057,7 @@
         <v>0.92993630573248398</v>
       </c>
       <c r="N244" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.35">
@@ -11284,7 +11101,7 @@
         <v>0.930379746835443</v>
       </c>
       <c r="N245" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.35">
@@ -11328,7 +11145,7 @@
         <v>0.93081761006289299</v>
       </c>
       <c r="N246" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.35">
@@ -11372,7 +11189,7 @@
         <v>0.93125000000000002</v>
       </c>
       <c r="N247" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.35">
@@ -11416,7 +11233,7 @@
         <v>0.93167701863354002</v>
       </c>
       <c r="N248" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.35">
@@ -11460,7 +11277,7 @@
         <v>0.93209876543209902</v>
       </c>
       <c r="N249" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.35">
@@ -11504,7 +11321,7 @@
         <v>0.93251533742331305</v>
       </c>
       <c r="N250" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.35">
@@ -11548,7 +11365,7 @@
         <v>0.93292682926829296</v>
       </c>
       <c r="N251" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.35">
@@ -11592,7 +11409,7 @@
         <v>0.93333333333333302</v>
       </c>
       <c r="N252" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.35">
@@ -11636,7 +11453,7 @@
         <v>0.93373493975903599</v>
       </c>
       <c r="N253" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.35">
@@ -11680,7 +11497,7 @@
         <v>0.93413173652694603</v>
       </c>
       <c r="N254" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.35">
@@ -11724,7 +11541,7 @@
         <v>0.93452380952380998</v>
       </c>
       <c r="N255" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.35">
@@ -11768,7 +11585,7 @@
         <v>0.93491124260354996</v>
       </c>
       <c r="N256" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.35">
@@ -11812,7 +11629,7 @@
         <v>0.93529411764705905</v>
       </c>
       <c r="N257" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.35">
@@ -11856,7 +11673,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N258" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.35">
@@ -11900,7 +11717,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N259" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.35">
@@ -11944,7 +11761,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N260" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.35">
@@ -11988,7 +11805,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N261" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.35">
@@ -12032,7 +11849,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N262" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.35">
@@ -12076,7 +11893,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N263" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.35">
@@ -12120,7 +11937,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N264" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.35">
@@ -12164,7 +11981,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N265" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.35">
@@ -12208,7 +12025,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N266" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.35">
@@ -12252,7 +12069,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N267" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.35">
@@ -12296,7 +12113,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N268" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.35">
@@ -12340,7 +12157,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N269" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.35">
@@ -12384,7 +12201,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N270" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.35">
@@ -12428,7 +12245,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N271" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.35">
@@ -12472,7 +12289,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N272" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.35">
@@ -12516,7 +12333,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N273" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.35">
@@ -12560,7 +12377,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N274" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.35">
@@ -12604,7 +12421,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N275" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.35">
@@ -12648,7 +12465,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N276" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.35">
@@ -12692,7 +12509,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N277" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.35">
@@ -12736,7 +12553,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N278" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.35">
@@ -12780,7 +12597,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N279" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.35">
@@ -12824,7 +12641,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N280" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.35">
@@ -12868,7 +12685,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N281" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.35">
@@ -12912,7 +12729,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N282" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.35">
@@ -12956,7 +12773,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N283" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.35">
@@ -13000,7 +12817,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N284" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.35">
@@ -13044,7 +12861,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N285" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.35">
@@ -13088,7 +12905,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N286" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.35">
@@ -13132,7 +12949,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N287" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.35">
@@ -13176,7 +12993,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N288" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.35">
@@ -13220,7 +13037,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N289" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.35">
@@ -13264,7 +13081,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N290" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.35">
@@ -13308,7 +13125,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N291" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.35">
@@ -13352,7 +13169,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N292" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.35">
@@ -13396,7 +13213,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N293" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.35">
@@ -13440,7 +13257,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N294" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.35">
@@ -13484,7 +13301,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N295" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.35">
@@ -13528,7 +13345,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N296" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.35">
@@ -13572,7 +13389,7 @@
         <v>0.929824561403509</v>
       </c>
       <c r="N297" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.35">
@@ -13616,7 +13433,7 @@
         <v>0.93023255813953498</v>
       </c>
       <c r="N298" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.35">
@@ -13660,7 +13477,7 @@
         <v>0.93063583815028905</v>
       </c>
       <c r="N299" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.35">
@@ -13704,7 +13521,7 @@
         <v>0.931034482758621</v>
       </c>
       <c r="N300" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.35">
@@ -13748,7 +13565,7 @@
         <v>0.93142857142857105</v>
       </c>
       <c r="N301" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.35">
@@ -13792,7 +13609,7 @@
         <v>0.93181818181818199</v>
       </c>
       <c r="N302" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.35">
@@ -13836,7 +13653,7 @@
         <v>0.93220338983050799</v>
       </c>
       <c r="N303" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.35">
@@ -13880,7 +13697,7 @@
         <v>0.93258426966292096</v>
       </c>
       <c r="N304" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.35">
@@ -13924,7 +13741,7 @@
         <v>0.93296089385474901</v>
       </c>
       <c r="N305" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.35">
@@ -13968,7 +13785,7 @@
         <v>0.93333333333333302</v>
       </c>
       <c r="N306" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.35">
@@ -14012,7 +13829,7 @@
         <v>0.93370165745856304</v>
       </c>
       <c r="N307" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.35">
@@ -14056,7 +13873,7 @@
         <v>0.93406593406593397</v>
       </c>
       <c r="N308" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.35">
@@ -14100,7 +13917,7 @@
         <v>0.93442622950819698</v>
       </c>
       <c r="N309" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.35">
@@ -14144,7 +13961,7 @@
         <v>0.934782608695652</v>
       </c>
       <c r="N310" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.35">
@@ -14188,7 +14005,7 @@
         <v>0.93513513513513502</v>
       </c>
       <c r="N311" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.35">
@@ -14232,7 +14049,7 @@
         <v>0.93548387096774199</v>
       </c>
       <c r="N312" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.35">
@@ -14276,7 +14093,7 @@
         <v>0.935828877005348</v>
       </c>
       <c r="N313" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.35">
@@ -14320,7 +14137,7 @@
         <v>0.93617021276595702</v>
       </c>
       <c r="N314" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.35">
@@ -14364,7 +14181,7 @@
         <v>0.93650793650793696</v>
       </c>
       <c r="N315" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.35">
@@ -14408,7 +14225,7 @@
         <v>0.93684210526315803</v>
       </c>
       <c r="N316" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.35">
@@ -14452,7 +14269,7 @@
         <v>0.93717277486910999</v>
       </c>
       <c r="N317" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.35">
@@ -14496,7 +14313,7 @@
         <v>0.9375</v>
       </c>
       <c r="N318" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.35">
@@ -14540,7 +14357,7 @@
         <v>0.93782383419689097</v>
       </c>
       <c r="N319" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.35">
@@ -14584,7 +14401,7 @@
         <v>0.93814432989690699</v>
       </c>
       <c r="N320" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.35">
@@ -14628,7 +14445,7 @@
         <v>0.93846153846153801</v>
       </c>
       <c r="N321" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.35">
@@ -14672,7 +14489,7 @@
         <v>0.93877551020408201</v>
       </c>
       <c r="N322" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.35">
@@ -14716,7 +14533,7 @@
         <v>0.93908629441624403</v>
       </c>
       <c r="N323" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.35">
@@ -14760,7 +14577,7 @@
         <v>0.939393939393939</v>
       </c>
       <c r="N324" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.35">
@@ -14804,7 +14621,7 @@
         <v>0.93969849246231196</v>
       </c>
       <c r="N325" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.35">
@@ -14848,7 +14665,7 @@
         <v>0.94</v>
       </c>
       <c r="N326" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.35">
@@ -14892,7 +14709,7 @@
         <v>0.94029850746268695</v>
       </c>
       <c r="N327" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.35">
@@ -14936,7 +14753,7 @@
         <v>0.94059405940594099</v>
       </c>
       <c r="N328" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.35">
@@ -14980,7 +14797,7 @@
         <v>0.94088669950738901</v>
       </c>
       <c r="N329" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.35">
@@ -15024,7 +14841,7 @@
         <v>0.94117647058823495</v>
       </c>
       <c r="N330" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.35">
@@ -15068,7 +14885,7 @@
         <v>0.94146341463414596</v>
       </c>
       <c r="N331" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.35">
@@ -15112,7 +14929,7 @@
         <v>0.94174757281553401</v>
       </c>
       <c r="N332" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.35">
@@ -15156,7 +14973,7 @@
         <v>0.94202898550724601</v>
       </c>
       <c r="N333" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.35">
@@ -15200,7 +15017,7 @@
         <v>0.94230769230769196</v>
       </c>
       <c r="N334" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.35">
@@ -15244,7 +15061,7 @@
         <v>0.94258373205741597</v>
       </c>
       <c r="N335" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.35">
@@ -15288,7 +15105,7 @@
         <v>0.94285714285714295</v>
       </c>
       <c r="N336" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.35">
@@ -15332,7 +15149,7 @@
         <v>0.94312796208530802</v>
       </c>
       <c r="N337" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.35">
@@ -15376,7 +15193,7 @@
         <v>0.94339622641509402</v>
       </c>
       <c r="N338" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.35">
@@ -15420,7 +15237,7 @@
         <v>0.94366197183098599</v>
       </c>
       <c r="N339" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.35">
@@ -15464,7 +15281,7 @@
         <v>0.94392523364486003</v>
       </c>
       <c r="N340" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.35">
@@ -15508,7 +15325,7 @@
         <v>0.94418604651162796</v>
       </c>
       <c r="N341" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.35">
@@ -15552,7 +15369,7 @@
         <v>0.94444444444444398</v>
       </c>
       <c r="N342" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.35">
@@ -15596,7 +15413,7 @@
         <v>0.94470046082949299</v>
       </c>
       <c r="N343" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.35">
@@ -15640,7 +15457,7 @@
         <v>0.94495412844036697</v>
       </c>
       <c r="N344" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.35">
@@ -15684,7 +15501,7 @@
         <v>0.94520547945205502</v>
       </c>
       <c r="N345" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.35">
@@ -15728,7 +15545,7 @@
         <v>0.94545454545454499</v>
       </c>
       <c r="N346" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.35">
@@ -15772,7 +15589,7 @@
         <v>0.94570135746606299</v>
       </c>
       <c r="N347" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.35">
@@ -15816,7 +15633,7 @@
         <v>0.94594594594594605</v>
       </c>
       <c r="N348" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.35">
@@ -15860,7 +15677,7 @@
         <v>0.94618834080717495</v>
       </c>
       <c r="N349" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.35">
@@ -15904,7 +15721,7 @@
         <v>0.94642857142857095</v>
       </c>
       <c r="N350" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.35">
@@ -15948,7 +15765,7 @@
         <v>0.94666666666666699</v>
       </c>
       <c r="N351" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.35">
@@ -15992,7 +15809,7 @@
         <v>0.946902654867257</v>
       </c>
       <c r="N352" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.35">
@@ -16036,7 +15853,7 @@
         <v>0.94713656387665202</v>
       </c>
       <c r="N353" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.35">
@@ -16080,7 +15897,7 @@
         <v>0.94736842105263197</v>
       </c>
       <c r="N354" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.35">
@@ -16124,7 +15941,7 @@
         <v>0.94759825327510905</v>
       </c>
       <c r="N355" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.35">
@@ -16168,7 +15985,7 @@
         <v>0.94782608695652204</v>
       </c>
       <c r="N356" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.35">
@@ -16212,7 +16029,7 @@
         <v>0.94805194805194803</v>
       </c>
       <c r="N357" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.35">
@@ -16256,7 +16073,7 @@
         <v>0.94827586206896597</v>
       </c>
       <c r="N358" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.35">
@@ -16300,7 +16117,7 @@
         <v>0.94849785407725296</v>
       </c>
       <c r="N359" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.35">
@@ -16344,7 +16161,7 @@
         <v>0.94871794871794901</v>
       </c>
       <c r="N360" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.35">
@@ -16388,7 +16205,7 @@
         <v>0.94893617021276599</v>
       </c>
       <c r="N361" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.35">
@@ -16432,7 +16249,7 @@
         <v>0.94915254237288105</v>
       </c>
       <c r="N362" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.35">
@@ -16476,7 +16293,7 @@
         <v>0.949367088607595</v>
       </c>
       <c r="N363" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.35">
@@ -16520,7 +16337,7 @@
         <v>0.94537815126050395</v>
       </c>
       <c r="N364" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.35">
@@ -16564,7 +16381,7 @@
         <v>0.94142259414225904</v>
       </c>
       <c r="N365" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.35">
@@ -16608,7 +16425,7 @@
         <v>0.94166666666666698</v>
       </c>
       <c r="N366" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.35">
@@ -16652,7 +16469,7 @@
         <v>0.94190871369294604</v>
       </c>
       <c r="N367" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.35">
@@ -16696,7 +16513,7 @@
         <v>0.94214876033057804</v>
       </c>
       <c r="N368" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.35">
@@ -16740,7 +16557,7 @@
         <v>0.94238683127571998</v>
       </c>
       <c r="N369" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.35">
@@ -16784,7 +16601,7 @@
         <v>0.94262295081967196</v>
       </c>
       <c r="N370" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.35">
@@ -16828,7 +16645,7 @@
         <v>0.94285714285714295</v>
       </c>
       <c r="N371" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.35">
@@ -16872,7 +16689,7 @@
         <v>0.94308943089430897</v>
       </c>
       <c r="N372" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.35">
@@ -16916,7 +16733,7 @@
         <v>0.94331983805667996</v>
       </c>
       <c r="N373" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.35">
@@ -16960,7 +16777,7 @@
         <v>0.94354838709677402</v>
       </c>
       <c r="N374" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.35">
@@ -17004,7 +16821,7 @@
         <v>0.94377510040160595</v>
       </c>
       <c r="N375" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.35">
@@ -17048,7 +16865,7 @@
         <v>0.94399999999999995</v>
       </c>
       <c r="N376" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.35">
@@ -17092,7 +16909,7 @@
         <v>0.94422310756972105</v>
       </c>
       <c r="N377" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.35">
@@ -17136,7 +16953,7 @@
         <v>0.94444444444444398</v>
       </c>
       <c r="N378" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.35">
@@ -17180,7 +16997,7 @@
         <v>0.94466403162055301</v>
       </c>
       <c r="N379" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.35">
@@ -17224,7 +17041,7 @@
         <v>0.94488188976377996</v>
       </c>
       <c r="N380" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.35">
@@ -17268,7 +17085,7 @@
         <v>0.94509803921568603</v>
       </c>
       <c r="N381" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.35">
@@ -17312,7 +17129,7 @@
         <v>0.9453125</v>
       </c>
       <c r="N382" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.35">
@@ -17356,7 +17173,7 @@
         <v>0.94552529182879397</v>
       </c>
       <c r="N383" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.35">
@@ -17400,7 +17217,7 @@
         <v>0.94573643410852704</v>
       </c>
       <c r="N384" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.35">
@@ -17444,7 +17261,7 @@
         <v>0.94594594594594605</v>
       </c>
       <c r="N385" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.35">
@@ -17488,7 +17305,7 @@
         <v>0.94615384615384601</v>
       </c>
       <c r="N386" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.35">
@@ -17532,7 +17349,7 @@
         <v>0.94636015325670497</v>
       </c>
       <c r="N387" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.35">
@@ -17576,7 +17393,7 @@
         <v>0.94656488549618301</v>
       </c>
       <c r="N388" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.35">
@@ -17620,7 +17437,7 @@
         <v>0.946768060836502</v>
       </c>
       <c r="N389" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.35">
@@ -17664,7 +17481,7 @@
         <v>0.94696969696969702</v>
       </c>
       <c r="N390" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.35">
@@ -17708,7 +17525,7 @@
         <v>0.94716981132075495</v>
       </c>
       <c r="N391" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.35">
@@ -17752,7 +17569,7 @@
         <v>0.94736842105263197</v>
       </c>
       <c r="N392" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.35">
@@ -17796,7 +17613,7 @@
         <v>0.94756554307116103</v>
       </c>
       <c r="N393" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.35">
@@ -17840,7 +17657,7 @@
         <v>0.94776119402985104</v>
       </c>
       <c r="N394" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.35">
@@ -17884,7 +17701,7 @@
         <v>0.94795539033457299</v>
       </c>
       <c r="N395" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.35">
@@ -17928,7 +17745,7 @@
         <v>0.94814814814814796</v>
       </c>
       <c r="N396" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.35">
@@ -17972,7 +17789,7 @@
         <v>0.94833948339483398</v>
       </c>
       <c r="N397" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.35">
@@ -18016,7 +17833,7 @@
         <v>0.94852941176470595</v>
       </c>
       <c r="N398" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.35">
@@ -18060,7 +17877,7 @@
         <v>0.94871794871794901</v>
       </c>
       <c r="N399" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.35">
@@ -18104,7 +17921,7 @@
         <v>0.94890510948905105</v>
       </c>
       <c r="N400" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.35">
@@ -18148,7 +17965,7 @@
         <v>0.94909090909090899</v>
       </c>
       <c r="N401" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.35">
@@ -18192,7 +18009,7 @@
         <v>0.94927536231884102</v>
       </c>
       <c r="N402" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.35">
@@ -18236,7 +18053,7 @@
         <v>0.94945848375451303</v>
       </c>
       <c r="N403" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.35">
@@ -18280,7 +18097,7 @@
         <v>0.94964028776978404</v>
       </c>
       <c r="N404" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.35">
@@ -18324,7 +18141,7 @@
         <v>0.94964028776978404</v>
       </c>
       <c r="N405" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.35">
@@ -18368,7 +18185,7 @@
         <v>0.94964028776978404</v>
       </c>
       <c r="N406" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.35">
@@ -18412,7 +18229,7 @@
         <v>0.94964028776978404</v>
       </c>
       <c r="N407" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.35">
@@ -18456,7 +18273,7 @@
         <v>0.94964028776978404</v>
       </c>
       <c r="N408" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.35">
@@ -18500,7 +18317,7 @@
         <v>0.94964028776978404</v>
       </c>
       <c r="N409" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.35">
@@ -18544,7 +18361,7 @@
         <v>0.94964028776978404</v>
       </c>
       <c r="N410" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.35">
@@ -18588,7 +18405,7 @@
         <v>0.94964028776978404</v>
       </c>
       <c r="N411" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.35">
@@ -18632,7 +18449,7 @@
         <v>0.94964028776978404</v>
       </c>
       <c r="N412" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.35">
@@ -18676,7 +18493,7 @@
         <v>0.94964028776978404</v>
       </c>
       <c r="N413" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.35">
@@ -18720,7 +18537,7 @@
         <v>0.94964028776978404</v>
       </c>
       <c r="N414" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.35">
@@ -18764,7 +18581,7 @@
         <v>0.94964028776978404</v>
       </c>
       <c r="N415" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.35">
@@ -18808,7 +18625,7 @@
         <v>0.94623655913978499</v>
       </c>
       <c r="N416" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.35">
@@ -18852,7 +18669,7 @@
         <v>0.94285714285714295</v>
       </c>
       <c r="N417" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.35">
@@ -18896,7 +18713,7 @@
         <v>0.93950177935943102</v>
       </c>
       <c r="N418" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.35">
@@ -18940,7 +18757,7 @@
         <v>0.93617021276595702</v>
       </c>
       <c r="N419" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.35">
@@ -18984,7 +18801,7 @@
         <v>0.93286219081272104</v>
       </c>
       <c r="N420" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.35">
@@ -19028,7 +18845,7 @@
         <v>0.92957746478873204</v>
       </c>
       <c r="N421" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.35">
@@ -19072,7 +18889,7 @@
         <v>0.92631578947368398</v>
       </c>
       <c r="N422" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.35">
@@ -19116,7 +18933,7 @@
         <v>0.92307692307692302</v>
       </c>
       <c r="N423" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.35">
@@ -19160,7 +18977,7 @@
         <v>0.91986062717770001</v>
       </c>
       <c r="N424" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.35">
@@ -19204,7 +19021,7 @@
         <v>0.90972222222222199</v>
       </c>
       <c r="N425" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.35">
@@ -19248,7 +19065,7 @@
         <v>0.91003460207612497</v>
       </c>
       <c r="N426" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.35">
@@ -19292,7 +19109,7 @@
         <v>0.91034482758620705</v>
       </c>
       <c r="N427" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.35">
@@ -19336,7 +19153,7 @@
         <v>0.91065292096219896</v>
       </c>
       <c r="N428" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.35">
@@ -19380,7 +19197,7 @@
         <v>0.91095890410958902</v>
       </c>
       <c r="N429" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.35">
@@ -19424,7 +19241,7 @@
         <v>0.91126279863481197</v>
       </c>
       <c r="N430" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.35">
@@ -19468,7 +19285,7 @@
         <v>0.91156462585034004</v>
       </c>
       <c r="N431" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.35">
@@ -19512,7 +19329,7 @@
         <v>0.91186440677966096</v>
       </c>
       <c r="N432" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.35">
@@ -19556,7 +19373,7 @@
         <v>0.91216216216216195</v>
       </c>
       <c r="N433" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.35">
@@ -19600,7 +19417,7 @@
         <v>0.91245791245791197</v>
       </c>
       <c r="N434" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.35">
@@ -19644,7 +19461,7 @@
         <v>0.91275167785234901</v>
       </c>
       <c r="N435" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.35">
@@ -19688,7 +19505,7 @@
         <v>0.91304347826086996</v>
       </c>
       <c r="N436" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.35">
@@ -19732,7 +19549,7 @@
         <v>0.913333333333333</v>
       </c>
       <c r="N437" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.35">
@@ -19776,7 +19593,7 @@
         <v>0.91362126245847197</v>
       </c>
       <c r="N438" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.35">
@@ -19820,7 +19637,7 @@
         <v>0.91390728476821204</v>
       </c>
       <c r="N439" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.35">
@@ -19864,7 +19681,7 @@
         <v>0.91419141914191404</v>
       </c>
       <c r="N440" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.35">
@@ -19908,7 +19725,7 @@
         <v>0.91447368421052599</v>
       </c>
       <c r="N441" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.35">
@@ -19952,7 +19769,7 @@
         <v>0.91475409836065602</v>
       </c>
       <c r="N442" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.35">
@@ -19996,7 +19813,7 @@
         <v>0.91503267973856195</v>
       </c>
       <c r="N443" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.35">
@@ -20040,7 +19857,7 @@
         <v>0.91530944625407196</v>
       </c>
       <c r="N444" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.35">
@@ -20084,7 +19901,7 @@
         <v>0.91558441558441594</v>
       </c>
       <c r="N445" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.35">
@@ -20128,7 +19945,7 @@
         <v>0.91585760517799397</v>
       </c>
       <c r="N446" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.35">
@@ -20172,7 +19989,7 @@
         <v>0.91612903225806497</v>
       </c>
       <c r="N447" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.35">
@@ -20216,7 +20033,7 @@
         <v>0.91639871382636695</v>
       </c>
       <c r="N448" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.35">
@@ -20260,7 +20077,7 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="N449" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.35">
@@ -20304,7 +20121,7 @@
         <v>0.91693290734824295</v>
       </c>
       <c r="N450" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.35">
@@ -20348,7 +20165,7 @@
         <v>0.91719745222929905</v>
       </c>
       <c r="N451" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.35">
@@ -20392,7 +20209,7 @@
         <v>0.91746031746031698</v>
       </c>
       <c r="N452" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.35">
@@ -20436,7 +20253,7 @@
         <v>0.917721518987342</v>
       </c>
       <c r="N453" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.35">
@@ -20480,7 +20297,7 @@
         <v>0.917981072555205</v>
       </c>
       <c r="N454" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.35">
@@ -20524,7 +20341,7 @@
         <v>0.91823899371069195</v>
       </c>
       <c r="N455" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.35">
@@ -20568,7 +20385,7 @@
         <v>0.91849529780564299</v>
       </c>
       <c r="N456" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.35">
@@ -20612,7 +20429,7 @@
         <v>0.91874999999999996</v>
       </c>
       <c r="N457" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.35">
@@ -20656,7 +20473,7 @@
         <v>0.91900311526479705</v>
       </c>
       <c r="N458" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.35">
@@ -20700,7 +20517,7 @@
         <v>0.91925465838509302</v>
       </c>
       <c r="N459" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.35">
@@ -20744,7 +20561,7 @@
         <v>0.91950464396284803</v>
       </c>
       <c r="N460" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.35">
@@ -20788,7 +20605,7 @@
         <v>0.91975308641975295</v>
       </c>
       <c r="N461" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.35">
@@ -20832,7 +20649,7 @@
         <v>0.92</v>
       </c>
       <c r="N462" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.35">
@@ -20876,7 +20693,7 @@
         <v>0.92024539877300604</v>
       </c>
       <c r="N463" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.35">
@@ -20920,7 +20737,7 @@
         <v>0.92048929663608603</v>
       </c>
       <c r="N464" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.35">
@@ -20964,7 +20781,7 @@
         <v>0.92073170731707299</v>
       </c>
       <c r="N465" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.35">
@@ -21008,7 +20825,7 @@
         <v>0.92097264437689996</v>
       </c>
       <c r="N466" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.35">
@@ -21052,7 +20869,7 @@
         <v>0.92121212121212104</v>
       </c>
       <c r="N467" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.35">
@@ -21096,7 +20913,7 @@
         <v>0.92145015105740202</v>
       </c>
       <c r="N468" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.35">
@@ -21140,7 +20957,7 @@
         <v>0.92168674698795205</v>
       </c>
       <c r="N469" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.35">
@@ -21184,7 +21001,7 @@
         <v>0.92192192192192202</v>
       </c>
       <c r="N470" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.35">
@@ -21228,7 +21045,7 @@
         <v>0.92215568862275499</v>
       </c>
       <c r="N471" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.35">
@@ -21272,7 +21089,7 @@
         <v>0.92238805970149296</v>
       </c>
       <c r="N472" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.35">
@@ -21316,7 +21133,7 @@
         <v>0.92238805970149296</v>
       </c>
       <c r="N473" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.35">
@@ -21360,7 +21177,7 @@
         <v>0.922619047619048</v>
       </c>
       <c r="N474" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.35">
@@ -21404,7 +21221,7 @@
         <v>0.92284866468842697</v>
       </c>
       <c r="N475" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.35">
@@ -21448,7 +21265,7 @@
         <v>0.92307692307692302</v>
       </c>
       <c r="N476" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.35">
@@ -21492,7 +21309,7 @@
         <v>0.92330383480825995</v>
       </c>
       <c r="N477" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.35">
@@ -21536,7 +21353,7 @@
         <v>0.92352941176470604</v>
       </c>
       <c r="N478" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.35">
@@ -21580,7 +21397,7 @@
         <v>0.92375366568914996</v>
       </c>
       <c r="N479" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.35">
@@ -21624,7 +21441,7 @@
         <v>0.92397660818713401</v>
       </c>
       <c r="N480" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.35">
@@ -21668,7 +21485,7 @@
         <v>0.92419825072886297</v>
       </c>
       <c r="N481" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.35">
@@ -21712,7 +21529,7 @@
         <v>0.92441860465116299</v>
       </c>
       <c r="N482" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.35">
@@ -21756,7 +21573,7 @@
         <v>0.92463768115942002</v>
       </c>
       <c r="N483" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.35">
@@ -21800,7 +21617,7 @@
         <v>0.92485549132947997</v>
       </c>
       <c r="N484" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.35">
@@ -21844,7 +21661,7 @@
         <v>0.92507204610950999</v>
       </c>
       <c r="N485" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.35">
@@ -21888,7 +21705,7 @@
         <v>0.92528735632183901</v>
       </c>
       <c r="N486" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.35">
@@ -21932,7 +21749,7 @@
         <v>0.92550143266475604</v>
       </c>
       <c r="N487" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.35">
@@ -21976,7 +21793,7 @@
         <v>0.92571428571428604</v>
       </c>
       <c r="N488" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.35">
@@ -22020,7 +21837,7 @@
         <v>0.92592592592592604</v>
       </c>
       <c r="N489" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.35">
@@ -22064,7 +21881,7 @@
         <v>0.92613636363636398</v>
       </c>
       <c r="N490" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.35">
@@ -22108,7 +21925,7 @@
         <v>0.92634560906515595</v>
       </c>
       <c r="N491" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.35">
@@ -22152,7 +21969,7 @@
         <v>0.92655367231638397</v>
       </c>
       <c r="N492" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.35">
@@ -22196,7 +22013,7 @@
         <v>0.92676056338028201</v>
       </c>
       <c r="N493" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.35">
@@ -22240,7 +22057,7 @@
         <v>0.92696629213483195</v>
       </c>
       <c r="N494" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.35">
@@ -22284,7 +22101,7 @@
         <v>0.92717086834733897</v>
       </c>
       <c r="N495" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.35">
@@ -22328,7 +22145,7 @@
         <v>0.92737430167597801</v>
       </c>
       <c r="N496" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.35">
@@ -22372,7 +22189,7 @@
         <v>0.92757660167130895</v>
       </c>
       <c r="N497" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.35">
@@ -22416,7 +22233,7 @@
         <v>0.92777777777777803</v>
       </c>
       <c r="N498" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.35">
@@ -22460,7 +22277,7 @@
         <v>0.92797783933517997</v>
       </c>
       <c r="N499" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.35">
@@ -22504,7 +22321,7 @@
         <v>0.92817679558011001</v>
       </c>
       <c r="N500" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.35">
@@ -22548,7 +22365,7 @@
         <v>0.92837465564738297</v>
       </c>
       <c r="N501" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.35">
@@ -22592,7 +22409,7 @@
         <v>0.92857142857142905</v>
       </c>
       <c r="N502" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="503" spans="1:14" x14ac:dyDescent="0.35">
@@ -22636,7 +22453,7 @@
         <v>0.92876712328767097</v>
       </c>
       <c r="N503" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="504" spans="1:14" x14ac:dyDescent="0.35">
@@ -22680,7 +22497,7 @@
         <v>0.92896174863388004</v>
       </c>
       <c r="N504" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="505" spans="1:14" x14ac:dyDescent="0.35">
@@ -22724,7 +22541,7 @@
         <v>0.92915531335149903</v>
       </c>
       <c r="N505" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="506" spans="1:14" x14ac:dyDescent="0.35">
@@ -22768,7 +22585,7 @@
         <v>0.92934782608695699</v>
       </c>
       <c r="N506" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.35">
@@ -22812,7 +22629,7 @@
         <v>0.92953929539295399</v>
       </c>
       <c r="N507" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.35">
@@ -22856,7 +22673,7 @@
         <v>0.92972972972973</v>
       </c>
       <c r="N508" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.35">
@@ -22900,7 +22717,7 @@
         <v>0.92991913746630706</v>
       </c>
       <c r="N509" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.35">
@@ -22944,7 +22761,7 @@
         <v>0.93010752688172005</v>
       </c>
       <c r="N510" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.35">
@@ -22988,7 +22805,7 @@
         <v>0.93029490616622001</v>
       </c>
       <c r="N511" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.35">
@@ -23032,7 +22849,7 @@
         <v>0.93048128342245995</v>
       </c>
       <c r="N512" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="513" spans="1:14" x14ac:dyDescent="0.35">
@@ -23076,7 +22893,7 @@
         <v>0.93066666666666698</v>
       </c>
       <c r="N513" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="514" spans="1:14" x14ac:dyDescent="0.35">
@@ -23120,7 +22937,7 @@
         <v>0.930851063829787</v>
       </c>
       <c r="N514" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="515" spans="1:14" x14ac:dyDescent="0.35">
@@ -23164,7 +22981,7 @@
         <v>0.931034482758621</v>
       </c>
       <c r="N515" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="516" spans="1:14" x14ac:dyDescent="0.35">
@@ -23208,7 +23025,7 @@
         <v>0.93121693121693105</v>
       </c>
       <c r="N516" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="517" spans="1:14" x14ac:dyDescent="0.35">
@@ -23252,7 +23069,7 @@
         <v>0.93139841688654401</v>
       </c>
       <c r="N517" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="518" spans="1:14" x14ac:dyDescent="0.35">
@@ -23296,7 +23113,7 @@
         <v>0.93157894736842095</v>
       </c>
       <c r="N518" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="519" spans="1:14" x14ac:dyDescent="0.35">
@@ -23340,7 +23157,7 @@
         <v>0.93175853018372701</v>
       </c>
       <c r="N519" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="520" spans="1:14" x14ac:dyDescent="0.35">
@@ -23384,7 +23201,7 @@
         <v>0.93193717277486898</v>
       </c>
       <c r="N520" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="521" spans="1:14" x14ac:dyDescent="0.35">
@@ -23428,7 +23245,7 @@
         <v>0.93211488250652696</v>
       </c>
       <c r="N521" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="522" spans="1:14" x14ac:dyDescent="0.35">
@@ -23472,7 +23289,7 @@
         <v>0.93229166666666696</v>
       </c>
       <c r="N522" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="523" spans="1:14" x14ac:dyDescent="0.35">
@@ -23516,7 +23333,7 @@
         <v>0.932467532467532</v>
       </c>
       <c r="N523" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="524" spans="1:14" x14ac:dyDescent="0.35">
@@ -23560,7 +23377,7 @@
         <v>0.932642487046632</v>
       </c>
       <c r="N524" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="525" spans="1:14" x14ac:dyDescent="0.35">
@@ -23604,7 +23421,7 @@
         <v>0.93281653746769999</v>
       </c>
       <c r="N525" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="526" spans="1:14" x14ac:dyDescent="0.35">
@@ -23648,7 +23465,7 @@
         <v>0.93298969072164994</v>
       </c>
       <c r="N526" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="527" spans="1:14" x14ac:dyDescent="0.35">
@@ -23692,7 +23509,7 @@
         <v>0.93316195372750599</v>
       </c>
       <c r="N527" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="528" spans="1:14" x14ac:dyDescent="0.35">
@@ -23736,7 +23553,7 @@
         <v>0.93333333333333302</v>
       </c>
       <c r="N528" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="529" spans="1:14" x14ac:dyDescent="0.35">
@@ -23780,7 +23597,7 @@
         <v>0.93350383631713596</v>
       </c>
       <c r="N529" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="530" spans="1:14" x14ac:dyDescent="0.35">
@@ -23824,7 +23641,7 @@
         <v>0.93367346938775497</v>
       </c>
       <c r="N530" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="531" spans="1:14" x14ac:dyDescent="0.35">
@@ -23868,7 +23685,7 @@
         <v>0.93384223918575104</v>
       </c>
       <c r="N531" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="532" spans="1:14" x14ac:dyDescent="0.35">
@@ -23912,7 +23729,7 @@
         <v>0.93401015228426398</v>
       </c>
       <c r="N532" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="533" spans="1:14" x14ac:dyDescent="0.35">
@@ -23956,7 +23773,7 @@
         <v>0.93417721518987296</v>
       </c>
       <c r="N533" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="534" spans="1:14" x14ac:dyDescent="0.35">
@@ -24000,7 +23817,7 @@
         <v>0.93434343434343403</v>
       </c>
       <c r="N534" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="535" spans="1:14" x14ac:dyDescent="0.35">
@@ -24044,7 +23861,7 @@
         <v>0.93450881612090697</v>
       </c>
       <c r="N535" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="536" spans="1:14" x14ac:dyDescent="0.35">
@@ -24088,7 +23905,7 @@
         <v>0.93467336683417102</v>
       </c>
       <c r="N536" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="537" spans="1:14" x14ac:dyDescent="0.35">
@@ -24132,7 +23949,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N537" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="538" spans="1:14" x14ac:dyDescent="0.35">
@@ -24176,7 +23993,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N538" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="539" spans="1:14" x14ac:dyDescent="0.35">
@@ -24220,7 +24037,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N539" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="540" spans="1:14" x14ac:dyDescent="0.35">
@@ -24264,7 +24081,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N540" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.35">
@@ -24308,7 +24125,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N541" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="542" spans="1:14" x14ac:dyDescent="0.35">
@@ -24352,7 +24169,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N542" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="543" spans="1:14" x14ac:dyDescent="0.35">
@@ -24396,7 +24213,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N543" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="544" spans="1:14" x14ac:dyDescent="0.35">
@@ -24440,7 +24257,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N544" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="545" spans="1:14" x14ac:dyDescent="0.35">
@@ -24484,7 +24301,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N545" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="546" spans="1:14" x14ac:dyDescent="0.35">
@@ -24528,7 +24345,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N546" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.35">
@@ -24572,7 +24389,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N547" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="548" spans="1:14" x14ac:dyDescent="0.35">
@@ -24616,7 +24433,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N548" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.35">
@@ -24660,7 +24477,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N549" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="550" spans="1:14" x14ac:dyDescent="0.35">
@@ -24704,7 +24521,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N550" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="551" spans="1:14" x14ac:dyDescent="0.35">
@@ -24748,7 +24565,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N551" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="552" spans="1:14" x14ac:dyDescent="0.35">
@@ -24792,7 +24609,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N552" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="553" spans="1:14" x14ac:dyDescent="0.35">
@@ -24836,7 +24653,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N553" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="554" spans="1:14" x14ac:dyDescent="0.35">
@@ -24880,7 +24697,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N554" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="555" spans="1:14" x14ac:dyDescent="0.35">
@@ -24924,7 +24741,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N555" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="556" spans="1:14" x14ac:dyDescent="0.35">
@@ -24968,7 +24785,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N556" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="557" spans="1:14" x14ac:dyDescent="0.35">
@@ -25012,7 +24829,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N557" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="558" spans="1:14" x14ac:dyDescent="0.35">
@@ -25056,7 +24873,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N558" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="559" spans="1:14" x14ac:dyDescent="0.35">
@@ -25100,7 +24917,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N559" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="560" spans="1:14" x14ac:dyDescent="0.35">
@@ -25144,7 +24961,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N560" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="561" spans="1:14" x14ac:dyDescent="0.35">
@@ -25188,7 +25005,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N561" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="562" spans="1:14" x14ac:dyDescent="0.35">
@@ -25232,7 +25049,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N562" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="563" spans="1:14" x14ac:dyDescent="0.35">
@@ -25276,7 +25093,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N563" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="564" spans="1:14" x14ac:dyDescent="0.35">
@@ -25320,7 +25137,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N564" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="565" spans="1:14" x14ac:dyDescent="0.35">
@@ -25364,7 +25181,7 @@
         <v>0.93483709273183002</v>
       </c>
       <c r="N565" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="566" spans="1:14" x14ac:dyDescent="0.35">
@@ -25408,7 +25225,7 @@
         <v>0.9325</v>
       </c>
       <c r="N566" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="567" spans="1:14" x14ac:dyDescent="0.35">
@@ -25452,7 +25269,7 @@
         <v>0.932668329177057</v>
       </c>
       <c r="N567" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="568" spans="1:14" x14ac:dyDescent="0.35">
@@ -25496,7 +25313,7 @@
         <v>0.93283582089552197</v>
       </c>
       <c r="N568" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="569" spans="1:14" x14ac:dyDescent="0.35">
@@ -25540,7 +25357,7 @@
         <v>0.93300248138957798</v>
       </c>
       <c r="N569" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="570" spans="1:14" x14ac:dyDescent="0.35">
@@ -25584,7 +25401,7 @@
         <v>0.933168316831683</v>
       </c>
       <c r="N570" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="571" spans="1:14" x14ac:dyDescent="0.35">
@@ -25628,7 +25445,7 @@
         <v>0.93333333333333302</v>
       </c>
       <c r="N571" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="572" spans="1:14" x14ac:dyDescent="0.35">
@@ -25672,7 +25489,7 @@
         <v>0.93349753694581294</v>
       </c>
       <c r="N572" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="573" spans="1:14" x14ac:dyDescent="0.35">
@@ -25716,7 +25533,7 @@
         <v>0.93366093366093394</v>
       </c>
       <c r="N573" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="574" spans="1:14" x14ac:dyDescent="0.35">
@@ -25760,7 +25577,7 @@
         <v>0.93382352941176505</v>
       </c>
       <c r="N574" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="575" spans="1:14" x14ac:dyDescent="0.35">
@@ -25804,7 +25621,7 @@
         <v>0.93398533007335005</v>
       </c>
       <c r="N575" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="576" spans="1:14" x14ac:dyDescent="0.35">
@@ -25848,7 +25665,7 @@
         <v>0.93414634146341502</v>
       </c>
       <c r="N576" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="577" spans="1:14" x14ac:dyDescent="0.35">
@@ -25892,7 +25709,7 @@
         <v>0.934306569343066</v>
       </c>
       <c r="N577" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="578" spans="1:14" x14ac:dyDescent="0.35">
@@ -25936,7 +25753,7 @@
         <v>0.93446601941747598</v>
       </c>
       <c r="N578" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="579" spans="1:14" x14ac:dyDescent="0.35">
@@ -25980,7 +25797,7 @@
         <v>0.93462469733656195</v>
       </c>
       <c r="N579" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="580" spans="1:14" x14ac:dyDescent="0.35">
@@ -26024,7 +25841,7 @@
         <v>0.934782608695652</v>
       </c>
       <c r="N580" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="581" spans="1:14" x14ac:dyDescent="0.35">
@@ -26068,7 +25885,7 @@
         <v>0.93493975903614501</v>
       </c>
       <c r="N581" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="582" spans="1:14" x14ac:dyDescent="0.35">
@@ -26112,7 +25929,7 @@
         <v>0.93509615384615397</v>
       </c>
       <c r="N582" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="583" spans="1:14" x14ac:dyDescent="0.35">
@@ -26156,7 +25973,7 @@
         <v>0.93525179856115104</v>
       </c>
       <c r="N583" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="584" spans="1:14" x14ac:dyDescent="0.35">
@@ -26200,7 +26017,7 @@
         <v>0.93540669856459302</v>
       </c>
       <c r="N584" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="585" spans="1:14" x14ac:dyDescent="0.35">
@@ -26244,7 +26061,7 @@
         <v>0.93556085918854404</v>
       </c>
       <c r="N585" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="586" spans="1:14" x14ac:dyDescent="0.35">
@@ -26288,7 +26105,7 @@
         <v>0.93571428571428605</v>
       </c>
       <c r="N586" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="587" spans="1:14" x14ac:dyDescent="0.35">
@@ -26332,7 +26149,7 @@
         <v>0.93586698337292196</v>
       </c>
       <c r="N587" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="588" spans="1:14" x14ac:dyDescent="0.35">
@@ -26376,7 +26193,7 @@
         <v>0.93601895734597196</v>
       </c>
       <c r="N588" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="589" spans="1:14" x14ac:dyDescent="0.35">
@@ -26420,7 +26237,7 @@
         <v>0.93617021276595702</v>
       </c>
       <c r="N589" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="590" spans="1:14" x14ac:dyDescent="0.35">
@@ -26464,7 +26281,7 @@
         <v>0.93632075471698095</v>
       </c>
       <c r="N590" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="591" spans="1:14" x14ac:dyDescent="0.35">
@@ -26508,7 +26325,7 @@
         <v>0.93647058823529405</v>
       </c>
       <c r="N591" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="592" spans="1:14" x14ac:dyDescent="0.35">
@@ -26552,7 +26369,7 @@
         <v>0.93661971830985902</v>
       </c>
       <c r="N592" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="593" spans="1:14" x14ac:dyDescent="0.35">
@@ -26596,7 +26413,7 @@
         <v>0.93676814988290402</v>
       </c>
       <c r="N593" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="594" spans="1:14" x14ac:dyDescent="0.35">
@@ -26640,7 +26457,7 @@
         <v>0.93691588785046698</v>
       </c>
       <c r="N594" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="595" spans="1:14" x14ac:dyDescent="0.35">
@@ -26684,7 +26501,7 @@
         <v>0.93706293706293697</v>
       </c>
       <c r="N595" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="596" spans="1:14" x14ac:dyDescent="0.35">
@@ -26728,7 +26545,7 @@
         <v>0.93720930232558097</v>
       </c>
       <c r="N596" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="597" spans="1:14" x14ac:dyDescent="0.35">
@@ -26772,7 +26589,7 @@
         <v>0.93735498839907205</v>
       </c>
       <c r="N597" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="598" spans="1:14" x14ac:dyDescent="0.35">
@@ -26816,7 +26633,7 @@
         <v>0.9375</v>
       </c>
       <c r="N598" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="599" spans="1:14" x14ac:dyDescent="0.35">
@@ -26860,7 +26677,7 @@
         <v>0.93764434180138601</v>
       </c>
       <c r="N599" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="600" spans="1:14" x14ac:dyDescent="0.35">
@@ -26904,7 +26721,7 @@
         <v>0.93778801843318005</v>
       </c>
       <c r="N600" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="601" spans="1:14" x14ac:dyDescent="0.35">
@@ -26948,7 +26765,7 @@
         <v>0.93793103448275905</v>
       </c>
       <c r="N601" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="602" spans="1:14" x14ac:dyDescent="0.35">
@@ -26992,7 +26809,7 @@
         <v>0.93807339449541305</v>
       </c>
       <c r="N602" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="603" spans="1:14" x14ac:dyDescent="0.35">
@@ -27036,7 +26853,7 @@
         <v>0.93821510297482802</v>
       </c>
       <c r="N603" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="604" spans="1:14" x14ac:dyDescent="0.35">
@@ -27080,7 +26897,7 @@
         <v>0.93835616438356195</v>
       </c>
       <c r="N604" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="605" spans="1:14" x14ac:dyDescent="0.35">
@@ -27124,7 +26941,7 @@
         <v>0.93849658314350803</v>
       </c>
       <c r="N605" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="606" spans="1:14" x14ac:dyDescent="0.35">
@@ -27168,7 +26985,7 @@
         <v>0.93863636363636405</v>
       </c>
       <c r="N606" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="607" spans="1:14" x14ac:dyDescent="0.35">
@@ -27212,7 +27029,7 @@
         <v>0.93877551020408201</v>
       </c>
       <c r="N607" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="608" spans="1:14" x14ac:dyDescent="0.35">
@@ -27256,7 +27073,7 @@
         <v>0.93891402714932104</v>
       </c>
       <c r="N608" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="609" spans="1:14" x14ac:dyDescent="0.35">
@@ -27300,7 +27117,7 @@
         <v>0.939051918735892</v>
       </c>
       <c r="N609" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="610" spans="1:14" x14ac:dyDescent="0.35">
@@ -27344,7 +27161,7 @@
         <v>0.93918918918918903</v>
       </c>
       <c r="N610" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="611" spans="1:14" x14ac:dyDescent="0.35">
@@ -27388,7 +27205,7 @@
         <v>0.939325842696629</v>
       </c>
       <c r="N611" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="612" spans="1:14" x14ac:dyDescent="0.35">
@@ -27432,7 +27249,7 @@
         <v>0.93946188340807202</v>
       </c>
       <c r="N612" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="613" spans="1:14" x14ac:dyDescent="0.35">
@@ -27476,7 +27293,7 @@
         <v>0.93959731543624203</v>
       </c>
       <c r="N613" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="614" spans="1:14" x14ac:dyDescent="0.35">
@@ -27520,7 +27337,7 @@
         <v>0.93973214285714302</v>
       </c>
       <c r="N614" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="615" spans="1:14" x14ac:dyDescent="0.35">
@@ -27564,7 +27381,7 @@
         <v>0.939866369710468</v>
       </c>
       <c r="N615" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="616" spans="1:14" x14ac:dyDescent="0.35">
@@ -27608,7 +27425,7 @@
         <v>0.94</v>
       </c>
       <c r="N616" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="617" spans="1:14" x14ac:dyDescent="0.35">
@@ -27652,7 +27469,7 @@
         <v>0.94013303769401302</v>
       </c>
       <c r="N617" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="618" spans="1:14" x14ac:dyDescent="0.35">
@@ -27696,7 +27513,7 @@
         <v>0.94026548672566401</v>
       </c>
       <c r="N618" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="619" spans="1:14" x14ac:dyDescent="0.35">
@@ -27740,7 +27557,7 @@
         <v>0.94039735099337796</v>
       </c>
       <c r="N619" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="620" spans="1:14" x14ac:dyDescent="0.35">
@@ -27784,7 +27601,7 @@
         <v>0.94052863436123302</v>
       </c>
       <c r="N620" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="621" spans="1:14" x14ac:dyDescent="0.35">
@@ -27828,7 +27645,7 @@
         <v>0.94065934065934098</v>
       </c>
       <c r="N621" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="622" spans="1:14" x14ac:dyDescent="0.35">
@@ -27872,7 +27689,7 @@
         <v>0.94078947368421095</v>
       </c>
       <c r="N622" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="623" spans="1:14" x14ac:dyDescent="0.35">
@@ -27916,7 +27733,7 @@
         <v>0.94091903719912495</v>
       </c>
       <c r="N623" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="624" spans="1:14" x14ac:dyDescent="0.35">
@@ -27960,7 +27777,7 @@
         <v>0.94104803493449796</v>
       </c>
       <c r="N624" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="625" spans="1:14" x14ac:dyDescent="0.35">
@@ -28004,7 +27821,7 @@
         <v>0.94117647058823495</v>
       </c>
       <c r="N625" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="626" spans="1:14" x14ac:dyDescent="0.35">
@@ -28048,7 +27865,7 @@
         <v>0.94130434782608696</v>
       </c>
       <c r="N626" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="627" spans="1:14" x14ac:dyDescent="0.35">
@@ -28092,7 +27909,7 @@
         <v>0.94143167028199604</v>
       </c>
       <c r="N627" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="628" spans="1:14" x14ac:dyDescent="0.35">
@@ -28136,7 +27953,7 @@
         <v>0.94155844155844204</v>
       </c>
       <c r="N628" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="629" spans="1:14" x14ac:dyDescent="0.35">
@@ -28180,7 +27997,7 @@
         <v>0.94168466522678196</v>
       </c>
       <c r="N629" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="630" spans="1:14" x14ac:dyDescent="0.35">
@@ -28224,7 +28041,7 @@
         <v>0.94181034482758597</v>
       </c>
       <c r="N630" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="631" spans="1:14" x14ac:dyDescent="0.35">
@@ -28268,7 +28085,7 @@
         <v>0.94193548387096804</v>
       </c>
       <c r="N631" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="632" spans="1:14" x14ac:dyDescent="0.35">
@@ -28312,7 +28129,7 @@
         <v>0.94206008583691003</v>
       </c>
       <c r="N632" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="633" spans="1:14" x14ac:dyDescent="0.35">
@@ -28356,7 +28173,7 @@
         <v>0.94218415417558898</v>
       </c>
       <c r="N633" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="634" spans="1:14" x14ac:dyDescent="0.35">
@@ -28400,7 +28217,7 @@
         <v>0.94230769230769196</v>
       </c>
       <c r="N634" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="635" spans="1:14" x14ac:dyDescent="0.35">
@@ -28444,7 +28261,7 @@
         <v>0.94243070362473302</v>
       </c>
       <c r="N635" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="636" spans="1:14" x14ac:dyDescent="0.35">
@@ -28488,7 +28305,7 @@
         <v>0.94255319148936201</v>
       </c>
       <c r="N636" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="637" spans="1:14" x14ac:dyDescent="0.35">
@@ -28532,7 +28349,7 @@
         <v>0.94267515923566902</v>
       </c>
       <c r="N637" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="638" spans="1:14" x14ac:dyDescent="0.35">
@@ -28576,7 +28393,7 @@
         <v>0.94279661016949201</v>
       </c>
       <c r="N638" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="639" spans="1:14" x14ac:dyDescent="0.35">
@@ -28620,7 +28437,7 @@
         <v>0.94291754756871005</v>
       </c>
       <c r="N639" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="640" spans="1:14" x14ac:dyDescent="0.35">
@@ -28664,7 +28481,7 @@
         <v>0.943037974683544</v>
       </c>
       <c r="N640" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="641" spans="1:14" x14ac:dyDescent="0.35">
@@ -28708,7 +28525,7 @@
         <v>0.94315789473684197</v>
       </c>
       <c r="N641" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="642" spans="1:14" x14ac:dyDescent="0.35">
@@ -28752,7 +28569,7 @@
         <v>0.94327731092436995</v>
       </c>
       <c r="N642" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="643" spans="1:14" x14ac:dyDescent="0.35">
@@ -28796,7 +28613,7 @@
         <v>0.94339622641509402</v>
       </c>
       <c r="N643" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="644" spans="1:14" x14ac:dyDescent="0.35">
@@ -28840,7 +28657,7 @@
         <v>0.94351464435146404</v>
       </c>
       <c r="N644" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="645" spans="1:14" x14ac:dyDescent="0.35">
@@ -28884,7 +28701,7 @@
         <v>0.94363256784968697</v>
       </c>
       <c r="N645" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="646" spans="1:14" x14ac:dyDescent="0.35">
@@ -28928,7 +28745,7 @@
         <v>0.94363256784968697</v>
       </c>
       <c r="N646" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="647" spans="1:14" x14ac:dyDescent="0.35">
@@ -28972,7 +28789,7 @@
         <v>0.94363256784968697</v>
       </c>
       <c r="N647" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="648" spans="1:14" x14ac:dyDescent="0.35">
@@ -29016,7 +28833,7 @@
         <v>0.94363256784968697</v>
       </c>
       <c r="N648" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="649" spans="1:14" x14ac:dyDescent="0.35">
@@ -29060,7 +28877,7 @@
         <v>0.94363256784968697</v>
       </c>
       <c r="N649" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="650" spans="1:14" x14ac:dyDescent="0.35">
@@ -29104,7 +28921,7 @@
         <v>0.94363256784968697</v>
       </c>
       <c r="N650" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="651" spans="1:14" x14ac:dyDescent="0.35">
@@ -29148,7 +28965,7 @@
         <v>0.94363256784968697</v>
       </c>
       <c r="N651" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="652" spans="1:14" x14ac:dyDescent="0.35">
@@ -29192,7 +29009,7 @@
         <v>0.92901878914405001</v>
       </c>
       <c r="N652" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="653" spans="1:14" x14ac:dyDescent="0.35">
@@ -29236,7 +29053,7 @@
         <v>0.92901878914405001</v>
       </c>
       <c r="N653" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="654" spans="1:14" x14ac:dyDescent="0.35">
@@ -29280,7 +29097,7 @@
         <v>0.92901878914405001</v>
       </c>
       <c r="N654" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="655" spans="1:14" x14ac:dyDescent="0.35">
@@ -29324,7 +29141,7 @@
         <v>0.92901878914405001</v>
       </c>
       <c r="N655" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="656" spans="1:14" x14ac:dyDescent="0.35">
@@ -29368,7 +29185,7 @@
         <v>0.92901878914405001</v>
       </c>
       <c r="N656" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.35">
@@ -29412,7 +29229,7 @@
         <v>0.92708333333333304</v>
       </c>
       <c r="N657" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="658" spans="1:14" x14ac:dyDescent="0.35">
@@ -29456,7 +29273,7 @@
         <v>0.92515592515592504</v>
       </c>
       <c r="N658" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="659" spans="1:14" x14ac:dyDescent="0.35">
@@ -29500,7 +29317,7 @@
         <v>0.92323651452282196</v>
       </c>
       <c r="N659" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="660" spans="1:14" x14ac:dyDescent="0.35">
@@ -29544,7 +29361,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N660" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="661" spans="1:14" x14ac:dyDescent="0.35">
@@ -29588,7 +29405,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N661" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="662" spans="1:14" x14ac:dyDescent="0.35">
@@ -29632,7 +29449,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N662" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="663" spans="1:14" x14ac:dyDescent="0.35">
@@ -29676,7 +29493,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N663" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="664" spans="1:14" x14ac:dyDescent="0.35">
@@ -29720,7 +29537,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N664" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="665" spans="1:14" x14ac:dyDescent="0.35">
@@ -29764,7 +29581,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N665" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="666" spans="1:14" x14ac:dyDescent="0.35">
@@ -29808,7 +29625,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N666" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="667" spans="1:14" x14ac:dyDescent="0.35">
@@ -29852,7 +29669,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N667" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="668" spans="1:14" x14ac:dyDescent="0.35">
@@ -29896,7 +29713,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N668" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="669" spans="1:14" x14ac:dyDescent="0.35">
@@ -29940,7 +29757,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N669" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="670" spans="1:14" x14ac:dyDescent="0.35">
@@ -29984,7 +29801,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N670" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="671" spans="1:14" x14ac:dyDescent="0.35">
@@ -30028,7 +29845,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N671" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="672" spans="1:14" x14ac:dyDescent="0.35">
@@ -30072,7 +29889,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N672" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="673" spans="1:14" x14ac:dyDescent="0.35">
@@ -30116,7 +29933,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N673" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="674" spans="1:14" x14ac:dyDescent="0.35">
@@ -30160,7 +29977,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N674" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="675" spans="1:14" x14ac:dyDescent="0.35">
@@ -30204,7 +30021,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N675" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="676" spans="1:14" x14ac:dyDescent="0.35">
@@ -30248,7 +30065,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N676" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="677" spans="1:14" x14ac:dyDescent="0.35">
@@ -30292,7 +30109,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N677" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="678" spans="1:14" x14ac:dyDescent="0.35">
@@ -30336,7 +30153,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N678" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="679" spans="1:14" x14ac:dyDescent="0.35">
@@ -30380,7 +30197,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N679" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="680" spans="1:14" x14ac:dyDescent="0.35">
@@ -30424,7 +30241,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N680" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="681" spans="1:14" x14ac:dyDescent="0.35">
@@ -30468,7 +30285,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N681" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="682" spans="1:14" x14ac:dyDescent="0.35">
@@ -30512,7 +30329,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N682" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="683" spans="1:14" x14ac:dyDescent="0.35">
@@ -30556,7 +30373,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N683" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="684" spans="1:14" x14ac:dyDescent="0.35">
@@ -30600,7 +30417,7 @@
         <v>0.92132505175983404</v>
       </c>
       <c r="N684" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="685" spans="1:14" x14ac:dyDescent="0.35">
@@ -30644,7 +30461,7 @@
         <v>0.93167701863354002</v>
       </c>
       <c r="N685" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="686" spans="1:14" x14ac:dyDescent="0.35">
@@ -30688,7 +30505,7 @@
         <v>0.93167701863354002</v>
       </c>
       <c r="N686" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="687" spans="1:14" x14ac:dyDescent="0.35">
@@ -30726,7 +30543,7 @@
         <v>0.93167701863354002</v>
       </c>
       <c r="N687" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
